--- a/Code/Optimiser/RowCol calcs.xlsx
+++ b/Code/Optimiser/RowCol calcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\Code\Optimiser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EBAB114-76F7-4544-8155-72F5FB468231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1271E6-08ED-46FE-B5D2-99F2125C6434}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="840" windowWidth="19440" windowHeight="15000" xr2:uid="{F85780C8-78EB-42E2-BE9E-CEC15D110F12}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:S23"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,14 +460,14 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1">
         <f>B1*B2</f>
-        <v>84</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -475,7 +475,8 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <f>12*7</f>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -507,7 +508,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -516,11 +517,11 @@
       </c>
       <c r="B8">
         <f>SUM(B9:B13)</f>
-        <v>29081</v>
+        <v>1134365</v>
       </c>
       <c r="D8">
         <f>D9+D10+D11+D12+D13</f>
-        <v>1761</v>
+        <v>16107</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -529,11 +530,11 @@
       </c>
       <c r="B9">
         <f>B6*B3</f>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D9">
         <f>(E1-1)*B6*B3</f>
-        <v>830</v>
+        <v>8375</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -542,15 +543,15 @@
       </c>
       <c r="B10">
         <f>B6*B4*Q10</f>
-        <v>28560</v>
+        <v>1132320</v>
       </c>
       <c r="D10">
         <f>B6*B4*E1</f>
-        <v>672</v>
+        <v>6720</v>
       </c>
       <c r="Q10">
         <f>E1*0.5*(1+E1)</f>
-        <v>3570</v>
+        <v>56616</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -559,7 +560,7 @@
       </c>
       <c r="B11">
         <f>E1*B5</f>
-        <v>252</v>
+        <v>1008</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -571,11 +572,11 @@
       </c>
       <c r="B12">
         <f>E1*B5</f>
-        <v>252</v>
+        <v>1008</v>
       </c>
       <c r="D12">
         <f>B5*B1*B2</f>
-        <v>252</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -584,11 +585,11 @@
       </c>
       <c r="B13">
         <f>B1</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <f>B1</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -597,11 +598,11 @@
       </c>
       <c r="B15">
         <f>SUM(B16:B19)</f>
-        <v>1120</v>
+        <v>9424</v>
       </c>
       <c r="D15">
         <f>D16+D17+D18+D19</f>
-        <v>868</v>
+        <v>8416</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -610,11 +611,11 @@
       </c>
       <c r="B16">
         <f>B1</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <f>B1</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -623,11 +624,11 @@
       </c>
       <c r="B17">
         <f>B1*B5</f>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D17">
         <f>B1*B5</f>
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -636,7 +637,7 @@
       </c>
       <c r="B18">
         <f>B5*E1</f>
-        <v>252</v>
+        <v>1008</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -648,11 +649,11 @@
       </c>
       <c r="B19">
         <f>E1*B6*B3</f>
-        <v>840</v>
+        <v>8400</v>
       </c>
       <c r="D19">
         <f>E1*B6*B3</f>
-        <v>840</v>
+        <v>8400</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Optimiser/RowCol calcs.xlsx
+++ b/Code/Optimiser/RowCol calcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\Code\Optimiser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1271E6-08ED-46FE-B5D2-99F2125C6434}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464EC1A5-C563-480A-BCB8-6A9398BFD413}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="840" windowWidth="19440" windowHeight="15000" xr2:uid="{F85780C8-78EB-42E2-BE9E-CEC15D110F12}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F7" sqref="F7:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,14 +460,14 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1">
         <f>B1*B2</f>
-        <v>336</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -475,8 +475,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <f>12*7</f>
-        <v>84</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -484,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -492,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -508,7 +507,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -517,11 +516,11 @@
       </c>
       <c r="B8">
         <f>SUM(B9:B13)</f>
-        <v>1134365</v>
+        <v>124580903</v>
       </c>
       <c r="D8">
         <f>D9+D10+D11+D12+D13</f>
-        <v>16107</v>
+        <v>403215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -530,11 +529,11 @@
       </c>
       <c r="B9">
         <f>B6*B3</f>
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="D9">
         <f>(E1-1)*B6*B3</f>
-        <v>8375</v>
+        <v>188000</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -543,15 +542,15 @@
       </c>
       <c r="B10">
         <f>B6*B4*Q10</f>
-        <v>1132320</v>
+        <v>124573680</v>
       </c>
       <c r="D10">
         <f>B6*B4*E1</f>
-        <v>6720</v>
+        <v>211680</v>
       </c>
       <c r="Q10">
         <f>E1*0.5*(1+E1)</f>
-        <v>56616</v>
+        <v>692076</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -560,7 +559,7 @@
       </c>
       <c r="B11">
         <f>E1*B5</f>
-        <v>1008</v>
+        <v>3528</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -572,11 +571,11 @@
       </c>
       <c r="B12">
         <f>E1*B5</f>
-        <v>1008</v>
+        <v>3528</v>
       </c>
       <c r="D12">
         <f>B5*B1*B2</f>
-        <v>1008</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -585,11 +584,11 @@
       </c>
       <c r="B13">
         <f>B1</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <f>B1</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -598,11 +597,11 @@
       </c>
       <c r="B15">
         <f>SUM(B16:B19)</f>
-        <v>9424</v>
+        <v>191716</v>
       </c>
       <c r="D15">
         <f>D16+D17+D18+D19</f>
-        <v>8416</v>
+        <v>188188</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -611,11 +610,11 @@
       </c>
       <c r="B16">
         <f>B1</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <f>B1</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -624,11 +623,11 @@
       </c>
       <c r="B17">
         <f>B1*B5</f>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D17">
         <f>B1*B5</f>
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -637,7 +636,7 @@
       </c>
       <c r="B18">
         <f>B5*E1</f>
-        <v>1008</v>
+        <v>3528</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -649,11 +648,11 @@
       </c>
       <c r="B19">
         <f>E1*B6*B3</f>
-        <v>8400</v>
+        <v>188160</v>
       </c>
       <c r="D19">
         <f>E1*B6*B3</f>
-        <v>8400</v>
+        <v>188160</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Optimiser/RowCol calcs.xlsx
+++ b/Code/Optimiser/RowCol calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\Code\Optimiser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464EC1A5-C563-480A-BCB8-6A9398BFD413}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37EE6B1-425E-433A-B9A5-B7A557C1A685}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="840" windowWidth="19440" windowHeight="15000" xr2:uid="{F85780C8-78EB-42E2-BE9E-CEC15D110F12}"/>
+    <workbookView xWindow="31140" yWindow="3300" windowWidth="14400" windowHeight="10755" xr2:uid="{F85780C8-78EB-42E2-BE9E-CEC15D110F12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,14 +460,14 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1">
         <f>B1*B2</f>
-        <v>1176</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -516,11 +516,11 @@
       </c>
       <c r="B8">
         <f>SUM(B9:B13)</f>
-        <v>124580903</v>
+        <v>162699432</v>
       </c>
       <c r="D8">
         <f>D9+D10+D11+D12+D13</f>
-        <v>403215</v>
+        <v>460840</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -533,7 +533,7 @@
       </c>
       <c r="D9">
         <f>(E1-1)*B6*B3</f>
-        <v>188000</v>
+        <v>214880</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -542,15 +542,15 @@
       </c>
       <c r="B10">
         <f>B6*B4*Q10</f>
-        <v>124573680</v>
+        <v>162691200</v>
       </c>
       <c r="D10">
         <f>B6*B4*E1</f>
-        <v>211680</v>
+        <v>241920</v>
       </c>
       <c r="Q10">
         <f>E1*0.5*(1+E1)</f>
-        <v>692076</v>
+        <v>903840</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -559,7 +559,7 @@
       </c>
       <c r="B11">
         <f>E1*B5</f>
-        <v>3528</v>
+        <v>4032</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -571,11 +571,11 @@
       </c>
       <c r="B12">
         <f>E1*B5</f>
-        <v>3528</v>
+        <v>4032</v>
       </c>
       <c r="D12">
         <f>B5*B1*B2</f>
-        <v>3528</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -584,11 +584,11 @@
       </c>
       <c r="B13">
         <f>B1</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <f>B1</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -597,11 +597,11 @@
       </c>
       <c r="B15">
         <f>SUM(B16:B19)</f>
-        <v>191716</v>
+        <v>219104</v>
       </c>
       <c r="D15">
         <f>D16+D17+D18+D19</f>
-        <v>188188</v>
+        <v>215072</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -610,11 +610,11 @@
       </c>
       <c r="B16">
         <f>B1</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <f>B1</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -623,11 +623,11 @@
       </c>
       <c r="B17">
         <f>B1*B5</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D17">
         <f>B1*B5</f>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
       </c>
       <c r="B18">
         <f>B5*E1</f>
-        <v>3528</v>
+        <v>4032</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -648,11 +648,11 @@
       </c>
       <c r="B19">
         <f>E1*B6*B3</f>
-        <v>188160</v>
+        <v>215040</v>
       </c>
       <c r="D19">
         <f>E1*B6*B3</f>
-        <v>188160</v>
+        <v>215040</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Optimiser/RowCol calcs.xlsx
+++ b/Code/Optimiser/RowCol calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\Code\Optimiser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37EE6B1-425E-433A-B9A5-B7A557C1A685}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD36E29-0E1F-44FB-8005-EC03A9133073}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31140" yWindow="3300" windowWidth="14400" windowHeight="10755" xr2:uid="{F85780C8-78EB-42E2-BE9E-CEC15D110F12}"/>
+    <workbookView xWindow="28680" yWindow="840" windowWidth="19440" windowHeight="15000" xr2:uid="{F85780C8-78EB-42E2-BE9E-CEC15D110F12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>NP</t>
   </si>
@@ -59,21 +59,9 @@
     <t>Rows</t>
   </si>
   <si>
-    <t>Sets</t>
-  </si>
-  <si>
     <t>Prec</t>
   </si>
   <si>
-    <t>Res1</t>
-  </si>
-  <si>
-    <t>Res2</t>
-  </si>
-  <si>
-    <t>Onl</t>
-  </si>
-  <si>
     <t>Columns</t>
   </si>
   <si>
@@ -83,10 +71,43 @@
     <t>N</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>NIT</t>
+  </si>
+  <si>
+    <t>NMMT</t>
+  </si>
+  <si>
+    <t>NMOT</t>
+  </si>
+  <si>
+    <t>Sets 1</t>
+  </si>
+  <si>
+    <t>Sets 2</t>
+  </si>
+  <si>
+    <t>Res</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>Onl 1</t>
+  </si>
+  <si>
+    <t>Onl 2</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>&gt;0 Rho</t>
+  </si>
+  <si>
+    <t>Ratio</t>
   </si>
 </sst>
 </file>
@@ -447,212 +468,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369586FE-FB47-484D-B8DA-5DFCD0818EDC}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1">
         <f>B1*B2</f>
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <f>E3/(B8*B6)</f>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <f>B3+B4+B5</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B12:B17)</f>
+        <v>12407</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E12:E17)</f>
+        <v>45132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <f>B9*B6*(E1-1)</f>
+        <v>5845</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <f>B12*D12</f>
+        <v>11690</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <f>B9*(B4+1)</f>
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E17" si="0">B13*D13</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <f>(B7+B4+B5)*B9*E1</f>
+        <v>5040</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <f>B8*E1</f>
+        <v>504</v>
+      </c>
+      <c r="D15">
+        <f>2*B9*B6*E4 + 1</f>
+        <v>31</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>15624</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <f>E1*B9</f>
+        <v>840</v>
+      </c>
+      <c r="D16">
+        <f>2*(B4+B5)+2</f>
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>6720</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <f>E1</f>
         <v>168</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D17">
+        <f>B9+1</f>
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <f>SUM(B20:B23)</f>
+        <v>6930</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <f>SUM(B9:B13)</f>
-        <v>162699432</v>
-      </c>
-      <c r="D8">
-        <f>D9+D10+D11+D12+D13</f>
-        <v>460840</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <f>B6*B3</f>
-        <v>160</v>
-      </c>
-      <c r="D9">
-        <f>(E1-1)*B6*B3</f>
-        <v>214880</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <f>B6*B4*Q10</f>
-        <v>162691200</v>
-      </c>
-      <c r="D10">
-        <f>B6*B4*E1</f>
-        <v>241920</v>
-      </c>
-      <c r="Q10">
-        <f>E1*0.5*(1+E1)</f>
-        <v>903840</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <f>E1*B5</f>
-        <v>4032</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B20">
+        <f>E1</f>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <f>E1*B9</f>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
-        <f>E1*B5</f>
-        <v>4032</v>
-      </c>
-      <c r="D12">
-        <f>B5*B1*B2</f>
-        <v>4032</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B22">
+        <f>B1*B8</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <f>B1</f>
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <f>B1</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <f>SUM(B16:B19)</f>
-        <v>219104</v>
-      </c>
-      <c r="D15">
-        <f>D16+D17+D18+D19</f>
-        <v>215072</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <f>B1</f>
-        <v>8</v>
-      </c>
-      <c r="D16">
-        <f>B1</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <f>B1*B5</f>
-        <v>24</v>
-      </c>
-      <c r="D17">
-        <f>B1*B5</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <f>B5*E1</f>
-        <v>4032</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <f>E1*B6*B3</f>
-        <v>215040</v>
-      </c>
-      <c r="D19">
-        <f>E1*B6*B3</f>
-        <v>215040</v>
+      <c r="B23">
+        <f>B9*B6*E1</f>
+        <v>5880</v>
       </c>
     </row>
   </sheetData>
